--- a/Data/Dataset Ready/Dataset.xlsx
+++ b/Data/Dataset Ready/Dataset.xlsx
@@ -562,54 +562,38 @@
       <c r="H2" t="n">
         <v>1740</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1823</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>690</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>18954</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>9574</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>3607</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>5323</t>
-        </is>
+      <c r="I2" t="n">
+        <v>1823</v>
+      </c>
+      <c r="J2" t="n">
+        <v>690</v>
+      </c>
+      <c r="K2" t="n">
+        <v>183</v>
+      </c>
+      <c r="L2" t="n">
+        <v>160</v>
+      </c>
+      <c r="M2" t="n">
+        <v>18954</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9574</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3607</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5323</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>7.141826923076923</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>10.61538461538461</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>11.79418886198547</v>
       </c>
       <c r="T2" t="n">
         <v>373799</v>
@@ -642,54 +626,38 @@
       <c r="H3" t="n">
         <v>620</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1211</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>9325</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>4576</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1698</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>2221</t>
-        </is>
+      <c r="I3" t="n">
+        <v>1211</v>
+      </c>
+      <c r="J3" t="n">
+        <v>330</v>
+      </c>
+      <c r="K3" t="n">
+        <v>78</v>
+      </c>
+      <c r="L3" t="n">
+        <v>183</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9325</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4576</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1698</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2221</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>7.678947368421053</v>
       </c>
       <c r="R3" t="n">
-        <v>10</v>
+        <v>12.2</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>14.20634920634921</v>
       </c>
       <c r="T3" t="n">
         <v>309676</v>
@@ -722,54 +690,38 @@
       <c r="H4" t="n">
         <v>597</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1256</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>11556</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>4979</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1605</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>3167</t>
-        </is>
+      <c r="I4" t="n">
+        <v>1256</v>
+      </c>
+      <c r="J4" t="n">
+        <v>314</v>
+      </c>
+      <c r="K4" t="n">
+        <v>92</v>
+      </c>
+      <c r="L4" t="n">
+        <v>139</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11556</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4979</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1605</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3167</v>
       </c>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>7.320113314447593</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>12.26934097421204</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>13.41833810888252</v>
       </c>
       <c r="T4" t="n">
         <v>350760</v>
@@ -802,54 +754,38 @@
       <c r="H5" t="n">
         <v>2015</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1406</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>14767</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>6728</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2755</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>2986</t>
-        </is>
+      <c r="I5" t="n">
+        <v>1406</v>
+      </c>
+      <c r="J5" t="n">
+        <v>322</v>
+      </c>
+      <c r="K5" t="n">
+        <v>108</v>
+      </c>
+      <c r="L5" t="n">
+        <v>179</v>
+      </c>
+      <c r="M5" t="n">
+        <v>14767</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6728</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2755</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2986</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>6.055762081784387</v>
       </c>
       <c r="R5" t="n">
-        <v>10</v>
+        <v>10.74444444444444</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>14.0037037037037</v>
       </c>
       <c r="T5" t="n">
         <v>345177</v>
@@ -882,54 +818,38 @@
       <c r="H6" t="n">
         <v>743</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1584</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>381</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>12297</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>5930</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2744</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>3598</t>
-        </is>
+      <c r="I6" t="n">
+        <v>1584</v>
+      </c>
+      <c r="J6" t="n">
+        <v>381</v>
+      </c>
+      <c r="K6" t="n">
+        <v>124</v>
+      </c>
+      <c r="L6" t="n">
+        <v>136</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12297</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5930</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2744</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3598</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>7.619047619047619</v>
       </c>
       <c r="R6" t="n">
-        <v>10</v>
+        <v>11.68019093078759</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>12.48086124401914</v>
       </c>
       <c r="T6" t="n">
         <v>301202</v>
@@ -962,54 +882,38 @@
       <c r="H7" t="n">
         <v>704</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1086</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>8413</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>4403</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1412</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2773</t>
-        </is>
+      <c r="I7" t="n">
+        <v>1086</v>
+      </c>
+      <c r="J7" t="n">
+        <v>259</v>
+      </c>
+      <c r="K7" t="n">
+        <v>67</v>
+      </c>
+      <c r="L7" t="n">
+        <v>69</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8413</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4403</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1412</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2773</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>6.347578347578348</v>
       </c>
       <c r="R7" t="n">
-        <v>10</v>
+        <v>10.17094017094017</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>12.01432664756447</v>
       </c>
       <c r="T7" t="n">
         <v>311848</v>
@@ -1042,54 +946,38 @@
       <c r="H8" t="n">
         <v>886</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>745</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>6381</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2824</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1032</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1600</t>
-        </is>
+      <c r="I8" t="n">
+        <v>745</v>
+      </c>
+      <c r="J8" t="n">
+        <v>121</v>
+      </c>
+      <c r="K8" t="n">
+        <v>27</v>
+      </c>
+      <c r="L8" t="n">
+        <v>44</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6381</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2824</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1032</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1600</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>5.735408560311284</v>
       </c>
       <c r="R8" t="n">
-        <v>7.5</v>
+        <v>9.197674418604651</v>
       </c>
       <c r="S8" t="n">
-        <v>9</v>
+        <v>10.31128404669261</v>
       </c>
       <c r="T8" t="n">
         <v>363750</v>
@@ -1122,54 +1010,38 @@
       <c r="H9" t="n">
         <v>1054</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>652</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>6431</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2915</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1239</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1912</t>
-        </is>
+      <c r="I9" t="n">
+        <v>652</v>
+      </c>
+      <c r="J9" t="n">
+        <v>103</v>
+      </c>
+      <c r="K9" t="n">
+        <v>28</v>
+      </c>
+      <c r="L9" t="n">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6431</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2915</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1239</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1912</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>6.382271468144045</v>
       </c>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>9.988857938718663</v>
       </c>
       <c r="S9" t="n">
-        <v>15</v>
+        <v>13.53055555555556</v>
       </c>
       <c r="T9" t="n">
         <v>340775</v>
@@ -1202,54 +1074,38 @@
       <c r="H10" t="n">
         <v>2224</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>921</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>9217</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>4974</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>2827</t>
-        </is>
+      <c r="I10" t="n">
+        <v>921</v>
+      </c>
+      <c r="J10" t="n">
+        <v>187</v>
+      </c>
+      <c r="K10" t="n">
+        <v>47</v>
+      </c>
+      <c r="L10" t="n">
+        <v>56</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9217</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4974</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1450</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2827</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>6.260975609756097</v>
       </c>
       <c r="R10" t="n">
-        <v>7</v>
+        <v>9.364077669902912</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>9.090024330900244</v>
       </c>
       <c r="T10" t="n">
         <v>381372</v>
@@ -1282,54 +1138,38 @@
       <c r="H11" t="n">
         <v>1086</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>667</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>6340</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2750</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1002</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1722</t>
-        </is>
+      <c r="I11" t="n">
+        <v>667</v>
+      </c>
+      <c r="J11" t="n">
+        <v>104</v>
+      </c>
+      <c r="K11" t="n">
+        <v>22</v>
+      </c>
+      <c r="L11" t="n">
+        <v>90</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6340</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2750</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1002</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1722</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>4.939393939393939</v>
       </c>
       <c r="R11" t="n">
-        <v>7</v>
+        <v>8.72644376899696</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>11.19266055045872</v>
       </c>
       <c r="T11" t="n">
         <v>445184</v>
@@ -1362,54 +1202,38 @@
       <c r="H12" t="n">
         <v>760</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>599</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>6692</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2947</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1073</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="I12" t="n">
+        <v>599</v>
+      </c>
+      <c r="J12" t="n">
+        <v>111</v>
+      </c>
+      <c r="K12" t="n">
+        <v>26</v>
+      </c>
+      <c r="L12" t="n">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6692</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2947</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1073</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2005</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>6.45925925925926</v>
       </c>
       <c r="R12" t="n">
-        <v>10</v>
+        <v>11.71641791044776</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>14.0410447761194</v>
       </c>
       <c r="T12" t="n">
         <v>342073</v>
@@ -1442,54 +1266,38 @@
       <c r="H13" t="n">
         <v>912</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>7590</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>4256</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1463</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2942</t>
-        </is>
+      <c r="I13" t="n">
+        <v>895</v>
+      </c>
+      <c r="J13" t="n">
+        <v>208</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53</v>
+      </c>
+      <c r="L13" t="n">
+        <v>107</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7590</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4256</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1463</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2942</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>4.669902912621359</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>7.258899676375404</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>7.253246753246753</v>
       </c>
       <c r="T13" t="n">
         <v>458240</v>
@@ -1522,54 +1330,38 @@
       <c r="H14" t="n">
         <v>831</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>879</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>7763</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>3804</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1328</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>2236</t>
-        </is>
+      <c r="I14" t="n">
+        <v>879</v>
+      </c>
+      <c r="J14" t="n">
+        <v>163</v>
+      </c>
+      <c r="K14" t="n">
+        <v>47</v>
+      </c>
+      <c r="L14" t="n">
+        <v>58</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7763</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3804</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1328</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2236</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>5.545081967213115</v>
       </c>
       <c r="R14" t="n">
-        <v>10</v>
+        <v>10.69262295081967</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>11.02489626556017</v>
       </c>
       <c r="T14" t="n">
         <v>339607</v>
@@ -1602,54 +1394,38 @@
       <c r="H15" t="n">
         <v>1151</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>408</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>4782</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2170</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>804</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>1324</t>
-        </is>
+      <c r="I15" t="n">
+        <v>408</v>
+      </c>
+      <c r="J15" t="n">
+        <v>108</v>
+      </c>
+      <c r="K15" t="n">
+        <v>25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>111</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4782</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2170</v>
+      </c>
+      <c r="O15" t="n">
+        <v>804</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1324</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>5.807692307692307</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>9.403314917127071</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>13.05464480874317</v>
       </c>
       <c r="T15" t="n">
         <v>367273</v>
@@ -1682,54 +1458,38 @@
       <c r="H16" t="n">
         <v>1406</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>904</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>9118</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>3785</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>1582</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>2647</t>
-        </is>
+      <c r="I16" t="n">
+        <v>904</v>
+      </c>
+      <c r="J16" t="n">
+        <v>165</v>
+      </c>
+      <c r="K16" t="n">
+        <v>49</v>
+      </c>
+      <c r="L16" t="n">
+        <v>184</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9118</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3785</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1582</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2647</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>6.026936026936027</v>
       </c>
       <c r="R16" t="n">
-        <v>10</v>
+        <v>9.397306397306398</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>12.6135593220339</v>
       </c>
       <c r="T16" t="n">
         <v>440347</v>
@@ -1762,54 +1522,38 @@
       <c r="H17" t="n">
         <v>2184</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>974</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>337</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>13800</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>6020</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>2904</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>3001</t>
-        </is>
+      <c r="I17" t="n">
+        <v>974</v>
+      </c>
+      <c r="J17" t="n">
+        <v>337</v>
+      </c>
+      <c r="K17" t="n">
+        <v>114</v>
+      </c>
+      <c r="L17" t="n">
+        <v>102</v>
+      </c>
+      <c r="M17" t="n">
+        <v>13800</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6020</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2904</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3001</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>8.144444444444444</v>
       </c>
       <c r="R17" t="n">
-        <v>10</v>
+        <v>12.2247191011236</v>
       </c>
       <c r="S17" t="n">
-        <v>15</v>
+        <v>13.58426966292135</v>
       </c>
       <c r="T17" t="n">
         <v>481732</v>
@@ -1842,54 +1586,38 @@
       <c r="H18" t="n">
         <v>1277</v>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>709</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>7238</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>3351</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>1432</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>1604</t>
-        </is>
+      <c r="I18" t="n">
+        <v>709</v>
+      </c>
+      <c r="J18" t="n">
+        <v>170</v>
+      </c>
+      <c r="K18" t="n">
+        <v>61</v>
+      </c>
+      <c r="L18" t="n">
+        <v>30</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7238</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3351</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1432</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1604</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>6.206060606060606</v>
       </c>
       <c r="R18" t="n">
-        <v>10</v>
+        <v>10.07926829268293</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>13.4</v>
       </c>
       <c r="T18" t="n">
         <v>341307</v>
@@ -1922,54 +1650,38 @@
       <c r="H19" t="n">
         <v>1812</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>955</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>608</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>597</t>
-        </is>
+      <c r="I19" t="n">
+        <v>86</v>
+      </c>
+      <c r="J19" t="n">
+        <v>25</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>955</v>
+      </c>
+      <c r="N19" t="n">
+        <v>608</v>
+      </c>
+      <c r="O19" t="n">
+        <v>236</v>
+      </c>
+      <c r="P19" t="n">
+        <v>597</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>3.8125</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>7.0625</v>
       </c>
       <c r="S19" t="n">
-        <v>4.5</v>
+        <v>5.133333333333334</v>
       </c>
       <c r="T19" t="n">
         <v>334590</v>
@@ -2027,13 +1739,13 @@
         <v>5746</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>6.78125</v>
       </c>
       <c r="R20" t="n">
-        <v>10</v>
+        <v>10.42788461538461</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>11.50363196125908</v>
       </c>
       <c r="T20" t="n">
         <v>402877</v>
@@ -2091,13 +1803,13 @@
         <v>2394</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>7.383202099737533</v>
       </c>
       <c r="R21" t="n">
-        <v>10</v>
+        <v>11.41842105263158</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>13.96842105263158</v>
       </c>
       <c r="T21" t="n">
         <v>328284</v>
@@ -2155,13 +1867,13 @@
         <v>3249</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>7.373937677053824</v>
       </c>
       <c r="R22" t="n">
-        <v>10</v>
+        <v>11.95750708215297</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>12.8974358974359</v>
       </c>
       <c r="T22" t="n">
         <v>371699</v>
@@ -2219,13 +1931,13 @@
         <v>3079</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>10.51111111111111</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>13.03333333333333</v>
       </c>
       <c r="T23" t="n">
         <v>367403</v>
@@ -2283,13 +1995,13 @@
         <v>3413</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>7.597619047619047</v>
       </c>
       <c r="R24" t="n">
-        <v>10</v>
+        <v>11.98806682577566</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>12.64508393285372</v>
       </c>
       <c r="T24" t="n">
         <v>310437</v>
@@ -2347,13 +2059,13 @@
         <v>2850</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>5.957264957264957</v>
       </c>
       <c r="R25" t="n">
-        <v>10</v>
+        <v>10.09401709401709</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>11.79428571428571</v>
       </c>
       <c r="T25" t="n">
         <v>323880</v>
@@ -2411,13 +2123,13 @@
         <v>1481</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>5.51953125</v>
       </c>
       <c r="R26" t="n">
-        <v>7.5</v>
+        <v>9.236434108527131</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>10.49416342412451</v>
       </c>
       <c r="T26" t="n">
         <v>378108</v>
@@ -2475,13 +2187,13 @@
         <v>1635</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>6.252077562326869</v>
       </c>
       <c r="R27" t="n">
-        <v>10</v>
+        <v>10.42222222222222</v>
       </c>
       <c r="S27" t="n">
-        <v>15</v>
+        <v>13.75069252077562</v>
       </c>
       <c r="T27" t="n">
         <v>352358</v>
@@ -2539,13 +2251,13 @@
         <v>2834</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>6.588807785888078</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>9.468446601941748</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>9.861313868613138</v>
       </c>
       <c r="T28" t="n">
         <v>393452</v>
@@ -2603,13 +2315,13 @@
         <v>1594</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>4.375757575757576</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>7.805471124620061</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>10.47560975609756</v>
       </c>
       <c r="T29" t="n">
         <v>453201</v>
@@ -2667,13 +2379,13 @@
         <v>1786</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>7.003703703703704</v>
       </c>
       <c r="R30" t="n">
-        <v>10</v>
+        <v>11.19702602230483</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>13.60223048327138</v>
       </c>
       <c r="T30" t="n">
         <v>353092</v>
@@ -2731,13 +2443,13 @@
         <v>2833</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>4.757281553398058</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>7.675324675324675</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>8.220779220779221</v>
       </c>
       <c r="T31" t="n">
         <v>474807</v>
@@ -2795,13 +2507,13 @@
         <v>2186</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>5.381147540983607</v>
       </c>
       <c r="R32" t="n">
-        <v>10</v>
+        <v>10.52868852459016</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>11.2716049382716</v>
       </c>
       <c r="T32" t="n">
         <v>351885</v>
@@ -2859,13 +2571,13 @@
         <v>1230</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>5.6775956284153</v>
       </c>
       <c r="R33" t="n">
-        <v>6</v>
+        <v>8.436464088397789</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>11.7967032967033</v>
       </c>
       <c r="T33" t="n">
         <v>378287</v>
@@ -2923,13 +2635,13 @@
         <v>2697</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>6.02020202020202</v>
       </c>
       <c r="R34" t="n">
-        <v>10</v>
+        <v>10.22558922558922</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>12.89455782312925</v>
       </c>
       <c r="T34" t="n">
         <v>466152</v>
@@ -2987,13 +2699,13 @@
         <v>3054</v>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>8.03888888888889</v>
       </c>
       <c r="R35" t="n">
-        <v>10</v>
+        <v>12.52808988764045</v>
       </c>
       <c r="S35" t="n">
-        <v>13.5</v>
+        <v>13.82122905027933</v>
       </c>
       <c r="T35" t="n">
         <v>518667</v>
@@ -3051,13 +2763,13 @@
         <v>1779</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>5.951515151515151</v>
       </c>
       <c r="R36" t="n">
-        <v>10</v>
+        <v>9.793939393939393</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>12.5030303030303</v>
       </c>
       <c r="T36" t="n">
         <v>362212</v>
@@ -3115,13 +2827,13 @@
         <v>541</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="R37" t="n">
-        <v>3</v>
+        <v>3.4375</v>
       </c>
       <c r="S37" t="n">
-        <v>4.5</v>
+        <v>4.1875</v>
       </c>
       <c r="T37" t="n">
         <v>344363</v>
@@ -3179,13 +2891,13 @@
         <v>5643</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>6.610576923076923</v>
       </c>
       <c r="R38" t="n">
-        <v>10</v>
+        <v>10.22836538461539</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>11.84855769230769</v>
       </c>
       <c r="T38" t="n">
         <v>418483</v>
@@ -3243,13 +2955,13 @@
         <v>2384</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>7.147368421052631</v>
       </c>
       <c r="R39" t="n">
-        <v>10</v>
+        <v>10.94708994708995</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>13.75065963060686</v>
       </c>
       <c r="T39" t="n">
         <v>342094</v>
@@ -3307,13 +3019,13 @@
         <v>3125</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>7.620396600566572</v>
       </c>
       <c r="R40" t="n">
-        <v>10</v>
+        <v>11.76770538243626</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>12.98011363636364</v>
       </c>
       <c r="T40" t="n">
         <v>387631</v>
@@ -3371,13 +3083,13 @@
         <v>2913</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="R41" t="n">
-        <v>10</v>
+        <v>10.13011152416357</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>12.71375464684015</v>
       </c>
       <c r="T41" t="n">
         <v>378819</v>
@@ -3435,13 +3147,13 @@
         <v>3303</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>7.092636579572447</v>
       </c>
       <c r="R42" t="n">
-        <v>10</v>
+        <v>11.01904761904762</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>11.97971360381861</v>
       </c>
       <c r="T42" t="n">
         <v>320050</v>
@@ -3499,13 +3211,13 @@
         <v>2806</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>6.057142857142857</v>
       </c>
       <c r="R43" t="n">
-        <v>10</v>
+        <v>10.1994301994302</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>12.40342857142857</v>
       </c>
       <c r="T43" t="n">
         <v>333909</v>
@@ -3563,13 +3275,13 @@
         <v>1448</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>5.162790697674419</v>
       </c>
       <c r="R44" t="n">
-        <v>7</v>
+        <v>8.937984496124031</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>10.31007751937985</v>
       </c>
       <c r="T44" t="n">
         <v>389676</v>
@@ -3627,13 +3339,13 @@
         <v>1597</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>5.722991689750693</v>
       </c>
       <c r="R45" t="n">
-        <v>10</v>
+        <v>9.975069252077562</v>
       </c>
       <c r="S45" t="n">
-        <v>13</v>
+        <v>13.50969529085873</v>
       </c>
       <c r="T45" t="n">
         <v>358069</v>
@@ -3691,13 +3403,13 @@
         <v>2834</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>5.898058252427185</v>
       </c>
       <c r="R46" t="n">
-        <v>8</v>
+        <v>8.725728155339805</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>9.37257281553398</v>
       </c>
       <c r="T46" t="n">
         <v>404635</v>
@@ -3755,13 +3467,13 @@
         <v>1616</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>3.945454545454545</v>
       </c>
       <c r="R47" t="n">
-        <v>5</v>
+        <v>8.448484848484849</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>10.97568389057751</v>
       </c>
       <c r="T47" t="n">
         <v>466813</v>
@@ -3819,13 +3531,13 @@
         <v>1751</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
+        <v>6.780669144981412</v>
       </c>
       <c r="R48" t="n">
-        <v>10</v>
+        <v>11.45353159851301</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>13.60820895522388</v>
       </c>
       <c r="T48" t="n">
         <v>360054</v>
@@ -3883,13 +3595,13 @@
         <v>2816</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>4.601941747572815</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>7.757281553398058</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>8.355987055016181</v>
       </c>
       <c r="T49" t="n">
         <v>481754</v>
@@ -3947,13 +3659,13 @@
         <v>2120</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>5.012244897959183</v>
       </c>
       <c r="R50" t="n">
-        <v>10</v>
+        <v>9.951020408163265</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>11.2172131147541</v>
       </c>
       <c r="T50" t="n">
         <v>360691</v>
@@ -4011,13 +3723,13 @@
         <v>1252</v>
       </c>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>5.169398907103825</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>7.903846153846154</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>11.37704918032787</v>
       </c>
       <c r="T51" t="n">
         <v>387754</v>
@@ -4075,13 +3787,13 @@
         <v>2793</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>5.912457912457913</v>
       </c>
       <c r="R52" t="n">
-        <v>10</v>
+        <v>9.895622895622896</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>13.34797297297297</v>
       </c>
       <c r="T52" t="n">
         <v>494201</v>
@@ -4139,13 +3851,13 @@
         <v>3058</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>7.661111111111111</v>
       </c>
       <c r="R53" t="n">
-        <v>10</v>
+        <v>12.21787709497207</v>
       </c>
       <c r="S53" t="n">
-        <v>11</v>
+        <v>13.44444444444444</v>
       </c>
       <c r="T53" t="n">
         <v>549875</v>
@@ -4203,13 +3915,13 @@
         <v>1709</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>5.648484848484848</v>
       </c>
       <c r="R54" t="n">
-        <v>10</v>
+        <v>9.539393939393939</v>
       </c>
       <c r="S54" t="n">
-        <v>10</v>
+        <v>12.55151515151515</v>
       </c>
       <c r="T54" t="n">
         <v>374470</v>
@@ -4267,13 +3979,13 @@
         <v>510</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>1.8125</v>
       </c>
       <c r="R55" t="n">
-        <v>2.5</v>
+        <v>3.3125</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>3.875</v>
       </c>
       <c r="T55" t="n">
         <v>357210</v>
